--- a/db설계_0719.xlsx
+++ b/db설계_0719.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taek\springpj\web05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\JAVA\springpj\web05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A77060-3F80-4C08-8E13-56574CAB0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1590" windowWidth="27690" windowHeight="11385" tabRatio="796" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -806,47 +807,6 @@
   </si>
   <si>
     <t>psubname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into category(orderby, code, name) values(0,'A00','정육 · 계란');
-insert into category(orderby, code, name) values(1,'A11','소고기');
-insert into category(orderby, code, name) values(2,'A12','돼지고기');
-insert into category(orderby, code, name) values(3,'A13','계란류');
-insert into category(orderby, code, name) values(0,'B00','국 · 반찬 · 메인요리');
-insert into category(orderby, code, name) values(1,'B11','국 · 탕 · 찌개');
-insert into category(orderby, code, name) values(2,'B12','밀키트 · 메인요리');
-insert into category(orderby, code, name) values(3,'B13','밑반찬');
-insert into category(orderby, code, name) values(4,'B14','김치 · 젓갈 · 장류');
-insert into category(orderby, code, name) values(0,'C00','샐러드 · 간편식');
-insert into category(orderby, code, name) values(1,'C11','샐러드 · 닭가슴살');
-insert into category(orderby, code, name) values(2,'C12','도시락 · 밥류');
-insert into category(orderby, code, name) values(3,'C13','떡볶이 · 튀김 · 순대');
-insert into category(orderby, code, name) values(0,'D00','면 · 양념 · 오일');
-insert into category(orderby, code, name) values(1,'D11','파스타 · 면류');
-insert into category(orderby, code, name) values(2,'D12','식초 · 소스 · 드레싱');
-insert into category(orderby, code, name) values(3,'D13','식용유 · 참기름 · 오일');
-insert into category(orderby, code, name) values(0,'E00','베이커리 · 치즈 · 델리');
-insert into category(orderby, code, name) values(1,'E11','식빵 · 빵류');
-insert into category(orderby, code, name) values(2,'E12','잼 · 버터 · 스프레드');
-insert into category(orderby, code, name) values(3,'E13','치즈');
-insert into category(orderby, code, name) values(4,'E14','델리');
-insert into category(orderby, code, name) values(0,'AA00','사이트 관리');
-insert into category(orderby, code, name) values(1,'AA11','카테고리 관리');
-insert into category(orderby, code, name) values(2,'AA12','실시간상담');
-insert into category(orderby, code, name) values(0,'AB00','회원관리');
-insert into category(orderby, code, name) values(1,'AB11','회원목록');
-insert into category(orderby, code, name) values(2,'AB12','휴면관리');
-insert into category(orderby, code, name) values(0,'AC00','제품관리');
-insert into category(orderby, code, name) values(1,'AC11','제품목록');
-insert into category(orderby, code, name) values(2,'AC12','제품등록');
-insert into category(orderby, code, name) values(0,'AD00','주문관리');
-insert into category(orderby, code, name) values(1,'AD11','주문목록');
-insert into category(orderby, code, name) values(0,'AE00','게시판관리');
-insert into category(orderby, code, name) values(1,'AE11','공지사항');
-insert into category(orderby, code, name) values(2,'AE12','FAQ');
-insert into category(orderby, code, name) values(3,'AE13','Q&amp;A');
-insert into category(orderby, code, name) values(4,'AE14','후기관리');  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1605,11 +1565,36 @@
 values(14,20,20000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">insert into category(orderby, code, name) values(0,'A00','정육·계란');
+insert into category(orderby, code, name) values(1,'A11','소고기');
+insert into category(orderby, code, name) values(2,'A12','돼지고기');
+insert into category(orderby, code, name) values(3,'A13','계란류');
+insert into category(orderby, code, name) values(0,'B00','국·반찬·메인요리');
+insert into category(orderby, code, name) values(1,'B11','국·탕·찌개');
+insert into category(orderby, code, name) values(2,'B12','밀키트·메인요리');
+insert into category(orderby, code, name) values(3,'B13','밑반찬');
+insert into category(orderby, code, name) values(4,'B14','김치·젓갈·장류');
+insert into category(orderby, code, name) values(0,'C00','샐러드·간편식');
+insert into category(orderby, code, name) values(1,'C11','샐러드·닭가슴살');
+insert into category(orderby, code, name) values(2,'C12','도시락·밥류');
+insert into category(orderby, code, name) values(3,'C13','떡볶이·튀김·순대');
+insert into category(orderby, code, name) values(0,'D00','면·양념·오일');
+insert into category(orderby, code, name) values(1,'D11','파스타·면류');
+insert into category(orderby, code, name) values(2,'D12','식초·소스·드레싱');
+insert into category(orderby, code, name) values(3,'D13','식용유·참기름·오일');
+insert into category(orderby, code, name) values(0,'E00','베이커리·치즈·델리');
+insert into category(orderby, code, name) values(1,'E11','식빵·빵류');
+insert into category(orderby, code, name) values(2,'E12','잼·버터·스프레드');
+insert into category(orderby, code, name) values(3,'E13','치즈');
+insert into category(orderby, code, name) values(4,'E14','델리');  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2377,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2442,7 +2427,7 @@
         <v>53</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -2492,7 +2477,7 @@
         <v>50</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -2542,7 +2527,7 @@
         <v>54</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
@@ -2775,7 +2760,7 @@
     </row>
     <row r="18" spans="2:16" ht="310.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -2841,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -2860,7 +2845,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -2874,13 +2859,13 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
@@ -2897,13 +2882,13 @@
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>99</v>
@@ -2920,7 +2905,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>100</v>
@@ -2943,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
@@ -3039,7 +3024,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -3086,7 +3071,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -3117,7 +3102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3177,7 @@
         <v>131</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>132</v>
@@ -3513,7 +3498,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -3713,7 +3698,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -3762,7 +3747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3786,7 +3771,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -4016,7 +4001,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -4122,7 +4107,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
@@ -4161,7 +4146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5009,7 +4994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5027,7 +5012,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -5065,7 +5050,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>136</v>
@@ -5075,7 +5060,7 @@
       </c>
       <c r="G4"/>
       <c r="H4" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>64</v>
@@ -5098,7 +5083,7 @@
         <v>139</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -5112,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
@@ -5162,7 +5147,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -5192,7 +5177,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -5547,7 +5532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5566,7 +5551,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -5589,7 +5574,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>91</v>
@@ -5601,19 +5586,19 @@
         <v>95</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -5627,7 +5612,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>96</v>
@@ -5639,19 +5624,19 @@
         <v>98</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -5665,7 +5650,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>39</v>
@@ -5680,7 +5665,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>54</v>
@@ -5689,7 +5674,7 @@
         <v>54</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -5703,7 +5688,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -5714,12 +5699,12 @@
         <v>85</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -5737,7 +5722,7 @@
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -5755,7 +5740,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -5860,7 +5845,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -6005,10 +5990,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:K28"/>
     </sheetView>
   </sheetViews>
@@ -6024,7 +6009,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -6047,13 +6032,13 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -6071,13 +6056,13 @@
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -6098,10 +6083,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -6122,10 +6107,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -6248,7 +6233,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -6358,7 +6343,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -6395,7 +6380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6759,7 +6744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6819,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>86</v>
@@ -7080,7 +7065,7 @@
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -7424,7 +7409,7 @@
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
@@ -7474,7 +7459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7508,13 +7493,13 @@
         <v>65</v>
       </c>
       <c r="E3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -7536,13 +7521,13 @@
         <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -7693,7 +7678,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
@@ -7759,7 +7744,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -8190,11 +8175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8356,7 +8341,7 @@
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -8678,14 +8663,14 @@
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
     </row>
-    <row r="65" spans="2:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="50"/>
       <c r="C65" s="50"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
     </row>
-    <row r="66" spans="2:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="50"/>
       <c r="C66" s="50"/>
       <c r="D66" s="50"/>
@@ -8705,7 +8690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -8787,7 +8772,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="14"/>
     </row>
@@ -8834,7 +8819,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -8878,7 +8863,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -8919,7 +8904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8938,7 +8923,7 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
@@ -8946,49 +8931,49 @@
         <v>25</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>72</v>
       </c>
       <c r="K3" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="N3" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="O3" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="R3" s="24" t="s">
         <v>51</v>
@@ -8999,52 +8984,52 @@
         <v>26</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>71</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -9071,17 +9056,17 @@
         <v>25</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>159</v>
@@ -9102,20 +9087,20 @@
         <v>26</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -9149,7 +9134,7 @@
     </row>
     <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -9362,11 +9347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9385,7 +9370,7 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -9399,7 +9384,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>91</v>
@@ -9411,19 +9396,19 @@
         <v>95</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>51</v>
@@ -9432,10 +9417,10 @@
         <v>51</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -9461,31 +9446,31 @@
         <v>98</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -9499,7 +9484,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>39</v>
@@ -9514,16 +9499,16 @@
         <v>33</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>54</v>
@@ -9532,10 +9517,10 @@
         <v>54</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
@@ -9549,7 +9534,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
@@ -9564,18 +9549,18 @@
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -9625,14 +9610,14 @@
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
@@ -9647,14 +9632,14 @@
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
@@ -9669,7 +9654,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
       <c r="E11" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -9688,7 +9673,7 @@
       <c r="B12" s="45"/>
       <c r="C12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -9759,7 +9744,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -9835,7 +9820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -9854,7 +9839,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -9868,13 +9853,13 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
@@ -9891,13 +9876,13 @@
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>99</v>
@@ -9914,7 +9899,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>100</v>
@@ -9937,7 +9922,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
@@ -10033,7 +10018,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -10080,7 +10065,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>

--- a/db설계_0719.xlsx
+++ b/db설계_0719.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\JAVA\springpj\web05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A77060-3F80-4C08-8E13-56574CAB0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83844F10-3186-47AE-B629-48EC0FB185C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -5993,7 +5993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:K28"/>
     </sheetView>
   </sheetViews>
@@ -8178,7 +8178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:F66"/>
     </sheetView>
   </sheetViews>
